--- a/biology/Botanique/Botanical_Society_of_the_British_Isles/Botanical_Society_of_the_British_Isles.xlsx
+++ b/biology/Botanique/Botanical_Society_of_the_British_Isles/Botanical_Society_of_the_British_Isles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Botanical Society of the British Isles (BSBI) (ou Société botanique des îles Britanniques) est une société savante qui rassemble les personnes intéressées par l’étude de la flore du Royaume-Uni, d’Irlande et de l’Île de Man. Elle rassemble des professionnels comme des amateurs et est la plus grande société savante vouée à l'étude botanique des îles britanniques.
 Cette société est fondée en 1836 sous le nom de Botanical Society of London. Elle réalise des atlas nationaux et par comtés, qui précisent la répartition des différentes espèces de plantes. 
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Atlas of the British Flora, 2002
 The Vice-county Census Catalogue of the Vascular Plants of Great Britain, 2003
